--- a/excel/username.xlsx
+++ b/excel/username.xlsx
@@ -41,7 +41,66 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -55,23 +114,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,8 +131,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -101,13 +155,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -115,70 +162,23 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -192,187 +192,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +397,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,43 +455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,17 +488,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +506,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="14" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -518,137 +518,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="21" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="22" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="24" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +665,16 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1050,62 +1060,167 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="19.5"/>
     <col customWidth="1" max="3" min="3" style="1" width="24.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>staffNo</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>ts1</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>20200701-202007-01</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>ts2</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>20190912002</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>student3-test</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>2019122601</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>student4-test</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>2019122602</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>student5-test</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <t>2019122603</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>student8-test</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <t>20200312001</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>stuTest0814-0</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>201908141351</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>stuTest0814-1</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>201908141401</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>stuTest0814-2</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>20190814</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1241,7 @@
       <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="17.5"/>
     <col customWidth="1" max="3" min="3" style="1" width="25.5"/>
@@ -1134,17 +1249,17 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>username</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>post_t</t>
         </is>
@@ -1156,20 +1271,20 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>test300</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>20181219崗位一級</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
         <is>
           <t>765120214@qq.com</t>
         </is>
